--- a/academycity/data/ms/datasets/excel/raw_data/MO122_s_12_26_VOL.xlsx
+++ b/academycity/data/ms/datasets/excel/raw_data/MO122_s_12_26_VOL.xlsx
@@ -365,11 +365,11 @@
   </sheetPr>
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.24"/>
@@ -775,260 +775,260 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>51</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00754</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00336</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.0076</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.0059</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.0077</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00415</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00091</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>56</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00653</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00312</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00745</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00425</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>59</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00196</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>60</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00234</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>61</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00783</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>62</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00959</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>62</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00092</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>63</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00082</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>64</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00322</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>65</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00447</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>66</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00977</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>67</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00084</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>68</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00138</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>64</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00839</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>69</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00379</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>70</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00642</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>71</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00032</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>72</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00526</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>73</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00734</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>74</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00433</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>75</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.0014</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>76</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00321</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>75</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>0</v>
+        <v>0.00094</v>
       </c>
     </row>
   </sheetData>
